--- a/biology/Zoologie/Barbican_oreillard/Barbican_oreillard.xlsx
+++ b/biology/Zoologie/Barbican_oreillard/Barbican_oreillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stactolaema leucotis
 Le Barbican oreillard (Stactolaema leucotis) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur le Kenya, la Tanzanie, le Malawi, le Zimbabwe, le Mozambique, le Swaziland et l'Afrique du Sud.
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stactolaema leucotis kilimensis (Shelley, 1889)
 Stactolaema leucotis leucogrammica (Reichenow, 1915)
